--- a/Practico 1/Metadata_permisos_construccion.xlsx
+++ b/Practico 1/Metadata_permisos_construccion.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umontevideo-my.sharepoint.com/personal/fham1_correo_um_edu_uy/Documents/Analisis de Datos/Practicos Github/AnalisisDatos/Practico 1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_621B7A57C3FBCEE4A9DAA169E12AAA20790BE9E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74DBE5A5-DA70-42EA-825C-14859C45479E}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="115">
   <si>
     <t>Sl No</t>
   </si>
@@ -270,33 +279,135 @@
   </si>
   <si>
     <t>Some ID, not useful for this</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Número de permiso</t>
+  </si>
+  <si>
+    <t>Tipo de permiso</t>
+  </si>
+  <si>
+    <t>Definición del tipo de permiso</t>
+  </si>
+  <si>
+    <t>Fecha de creación del permiso</t>
+  </si>
+  <si>
+    <t>Bloque</t>
+  </si>
+  <si>
+    <t>Lote</t>
+  </si>
+  <si>
+    <t>Sufijo número de calle</t>
+  </si>
+  <si>
+    <t>Nombre de la calle</t>
+  </si>
+  <si>
+    <t>Número de calle</t>
+  </si>
+  <si>
+    <t>Sufijo nombre de calle</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>Sufijo de la unidad</t>
+  </si>
+  <si>
+    <t>Estado actual del permiso</t>
+  </si>
+  <si>
+    <t>Fecha del estado actual del periso</t>
+  </si>
+  <si>
+    <t>Fecha de presentación/ingreso</t>
+  </si>
+  <si>
+    <t>Fecha de expedición</t>
+  </si>
+  <si>
+    <t>Fecha de terminación</t>
+  </si>
+  <si>
+    <t>Fecha de la primera construcción</t>
+  </si>
+  <si>
+    <t>Notificación estructural</t>
+  </si>
+  <si>
+    <t>Número de pisos existentes</t>
+  </si>
+  <si>
+    <t>Número de pisos propuestos</t>
+  </si>
+  <si>
+    <t>Fecha de vencimiento del permiso</t>
+  </si>
+  <si>
+    <t>Permiso relacionado a prevencion de incendios</t>
+  </si>
+  <si>
+    <t>Costo estimado</t>
+  </si>
+  <si>
+    <t>Costo revisado</t>
+  </si>
+  <si>
+    <t>Unidades existentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso recomendado </t>
+  </si>
+  <si>
+    <t>Uso actual de la construccion</t>
+  </si>
+  <si>
+    <t>Unidades preacordadas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFF00FF"/>
       <name val="'Times New Roman'"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="'Times New Roman'"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF494949"/>
       <name val="'Times New Roman'"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -304,7 +415,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -319,8 +430,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -334,548 +451,1151 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D24" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="47.43"/>
-    <col customWidth="1" min="3" max="3" width="63.57"/>
+    <col min="2" max="2" width="47.453125" customWidth="1"/>
+    <col min="3" max="3" width="63.54296875" customWidth="1"/>
+    <col min="5" max="5" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="84.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.5">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="17.25">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.5">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" ht="17.25">
-      <c r="A3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.5">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" ht="30.75">
-      <c r="A4" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.5">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" ht="30.75">
-      <c r="A5" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.5">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" ht="17.25">
-      <c r="A6" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.5">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="17.25">
-      <c r="A7" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" ht="17.25">
+      <c r="E7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.5">
       <c r="A8" s="2">
-        <v>7.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" ht="17.25">
+      <c r="E8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.5">
       <c r="A9" s="2">
-        <v>8.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" ht="17.25">
+      <c r="E9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.5">
       <c r="A10" s="2">
-        <v>9.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" ht="17.25">
+      <c r="E10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.5">
       <c r="A11" s="2">
-        <v>10.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" ht="17.25">
+      <c r="E11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.5">
       <c r="A12" s="2">
-        <v>11.0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.5">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" ht="17.25">
-      <c r="A13" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.5">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" ht="30.75">
-      <c r="A14" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.5">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" ht="17.25">
-      <c r="A15" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.5">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" ht="17.25">
-      <c r="A16" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.5">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" ht="17.25">
-      <c r="A17" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="E17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.5">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" ht="17.25">
-      <c r="A18" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="E18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.5">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" ht="30.75">
-      <c r="A19" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.5">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" ht="17.25">
-      <c r="A20" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.5">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" ht="17.25">
-      <c r="A21" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.5">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" ht="30.75">
-      <c r="A22" s="2">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="E22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.5">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" ht="17.25">
-      <c r="A23" s="2">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="E23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.5">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" ht="18.0" customHeight="1">
-      <c r="A24" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="31">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" ht="17.25">
-      <c r="A25" s="2">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="E25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.5">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" ht="17.25">
-      <c r="A26" s="2">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.5">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" ht="17.25">
-      <c r="A27" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="E27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.5">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" ht="17.25">
-      <c r="A28" s="2">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.5">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" ht="17.25">
-      <c r="A29" s="2">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.5">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" ht="17.25">
-      <c r="A30" s="2">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="E30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.5">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" ht="17.25">
-      <c r="A31" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="E31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.5">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" ht="17.25">
-      <c r="A32" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="E32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.5">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" ht="30.75">
-      <c r="A33" s="2">
-        <v>32.0</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="E33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="31">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" ht="17.25">
-      <c r="A34" s="2">
-        <v>33.0</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.5">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" ht="30.75">
-      <c r="A35" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.5">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" ht="30.75">
-      <c r="A36" s="2">
-        <v>35.0</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.5">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" ht="30.75">
-      <c r="A37" s="2">
-        <v>36.0</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.5">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" ht="17.25">
-      <c r="A38" s="2">
-        <v>37.0</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.5">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" ht="17.25">
-      <c r="A39" s="2">
-        <v>38.0</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="E39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.5">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" ht="17.25">
-      <c r="A40" s="2">
-        <v>39.0</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="E40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.5">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="41" ht="17.25">
-      <c r="A41" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="E41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.5">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" ht="17.25">
-      <c r="A42" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.5">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" ht="17.25">
-      <c r="A43" s="2">
-        <v>42.0</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="E43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.5">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="44" ht="17.25">
-      <c r="A44" s="2">
-        <v>43.0</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="E44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.5">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="E45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2:C2">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <conditionalFormatting sqref="E2:F2">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(E2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Practico 1/Metadata_permisos_construccion.xlsx
+++ b/Practico 1/Metadata_permisos_construccion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umontevideo-my.sharepoint.com/personal/fham1_correo_um_edu_uy/Documents/Analisis de Datos/Practicos Github/AnalisisDatos/Practico 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umontevideo-my.sharepoint.com/personal/fham1_correo_um_edu_uy/Documents/Analisis de Datos/AnalisisDatos/Practico 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_621B7A57C3FBCEE4A9DAA169E12AAA20790BE9E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74DBE5A5-DA70-42EA-825C-14859C45479E}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_621B7A57C3FBCEE4A9DAA169E12AAA20790BE9E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A14C5D76-4D98-47DD-9FEB-0326FC7DB038}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="162">
   <si>
     <t>Sl No</t>
   </si>
@@ -329,9 +329,6 @@
     <t>Estado actual del permiso</t>
   </si>
   <si>
-    <t>Fecha del estado actual del periso</t>
-  </si>
-  <si>
     <t>Fecha de presentación/ingreso</t>
   </si>
   <si>
@@ -356,9 +353,6 @@
     <t>Fecha de vencimiento del permiso</t>
   </si>
   <si>
-    <t>Permiso relacionado a prevencion de incendios</t>
-  </si>
-  <si>
     <t>Costo estimado</t>
   </si>
   <si>
@@ -374,7 +368,154 @@
     <t>Uso actual de la construccion</t>
   </si>
   <si>
-    <t>Unidades preacordadas</t>
+    <t>Cumplimiento TIDF</t>
+  </si>
+  <si>
+    <t>Tipo de construcción existente</t>
+  </si>
+  <si>
+    <t>Descripción tipo de construcción existente</t>
+  </si>
+  <si>
+    <t>Tipo de construcción propuesto</t>
+  </si>
+  <si>
+    <t>Descripción tipo de construcción propuesto</t>
+  </si>
+  <si>
+    <t>Permiso de sitio</t>
+  </si>
+  <si>
+    <t>Distrito supervisor</t>
+  </si>
+  <si>
+    <t>Barrio</t>
+  </si>
+  <si>
+    <t>Código postal</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Número asignado al permiso</t>
+  </si>
+  <si>
+    <t>Tipo de permiso representado numéricamente</t>
+  </si>
+  <si>
+    <t>Descripción del tipo de permiso, por ejemplo nueva construcción, remodelación</t>
+  </si>
+  <si>
+    <t>Fecha en que se creo el permiso, más tarde o igual que la fecha de ingreso</t>
+  </si>
+  <si>
+    <t>Relacionado con la dirección</t>
+  </si>
+  <si>
+    <t>Sufijo de la unidad (no obligatorio)</t>
+  </si>
+  <si>
+    <t>Detalles del fin del permiso. Por ejemplo: remodelación de cocina</t>
+  </si>
+  <si>
+    <t>Estado actual</t>
+  </si>
+  <si>
+    <t>Fecha del estado actual del permiso</t>
+  </si>
+  <si>
+    <t>Unidades propuestas</t>
+  </si>
+  <si>
+    <t>Fecha en que el estado actual fue ingresado</t>
+  </si>
+  <si>
+    <t>Fecha en que el permiso se presentó en ingresó al listado</t>
+  </si>
+  <si>
+    <t>Fecha en que se expidió</t>
+  </si>
+  <si>
+    <t>Fecha en que se terminó el proyecto (aplica si el estado actual es "completed")</t>
+  </si>
+  <si>
+    <t>Fecha en que se documentó la primera construcción</t>
+  </si>
+  <si>
+    <t>Notificación para cumplir ciertas necesidades legales</t>
+  </si>
+  <si>
+    <t>Número de pisos existentes en el edificio, no aplica a ciertos tipos</t>
+  </si>
+  <si>
+    <t>Número de pisos propuestos para la construcción</t>
+  </si>
+  <si>
+    <t>Piso blando para cumplir requerimientos contra terremotos (si o no)</t>
+  </si>
+  <si>
+    <t>Permiso de incendios</t>
+  </si>
+  <si>
+    <t>Permiso relacionado a la prevención de incendios (si o no)</t>
+  </si>
+  <si>
+    <t>Estimación inicial del costo del proyecto</t>
+  </si>
+  <si>
+    <t>Estimación revisada del costo del proyecto</t>
+  </si>
+  <si>
+    <t>Para que se usa actualmente</t>
+  </si>
+  <si>
+    <t>Cuantas unidades tiene el edificio</t>
+  </si>
+  <si>
+    <t>Recomendación de uso para el edificio</t>
+  </si>
+  <si>
+    <t>Unidades propuestas en el permiso</t>
+  </si>
+  <si>
+    <t>Cantidad de planos relacionados al permiso</t>
+  </si>
+  <si>
+    <t>Cumplimiento o no de TDIF, un nuevo requerimiento legal (si o no)</t>
+  </si>
+  <si>
+    <t>Descripción del tipo de construcción</t>
+  </si>
+  <si>
+    <t>Tipo de construcción existente (categorías representadas numéricamente)</t>
+  </si>
+  <si>
+    <t>Tipo de construcción propuesto (categorías representadas numéricamente)</t>
+  </si>
+  <si>
+    <t>Descripción del tipo de construcción propuesto</t>
+  </si>
+  <si>
+    <t>Permiso para construir en el sitio (si o no)</t>
+  </si>
+  <si>
+    <t>Barrio al que pertenece la ubicación de la construcción</t>
+  </si>
+  <si>
+    <t>Distrito supervisor al que pertenece la ubicación de la construcción</t>
+  </si>
+  <si>
+    <t>Código postal de la dirección del edificio</t>
+  </si>
+  <si>
+    <t>Par latitud, longitud</t>
+  </si>
+  <si>
+    <t>ID, no necesario</t>
   </si>
 </sst>
 </file>
@@ -471,17 +612,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D24" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="D29" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -829,10 +970,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="15.5">
       <c r="A2" s="1" t="s">
@@ -865,7 +1006,7 @@
         <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.5">
@@ -882,7 +1023,7 @@
         <v>87</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.5">
@@ -899,7 +1040,7 @@
         <v>88</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.5">
@@ -916,7 +1057,7 @@
         <v>89</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.5">
@@ -933,7 +1074,7 @@
         <v>90</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.5">
@@ -950,7 +1091,7 @@
         <v>91</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.5">
@@ -967,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.5">
@@ -984,7 +1125,7 @@
         <v>92</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.5">
@@ -1001,7 +1142,7 @@
         <v>93</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.5">
@@ -1018,7 +1159,7 @@
         <v>95</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.5">
@@ -1052,7 +1193,7 @@
         <v>97</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.5">
@@ -1069,7 +1210,7 @@
         <v>84</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.5">
@@ -1086,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.5">
@@ -1100,10 +1241,10 @@
         <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.5">
@@ -1117,10 +1258,10 @@
         <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.5">
@@ -1134,10 +1275,10 @@
         <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.5">
@@ -1151,10 +1292,10 @@
         <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.5">
@@ -1168,10 +1309,10 @@
         <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.5">
@@ -1185,10 +1326,10 @@
         <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.5">
@@ -1202,10 +1343,10 @@
         <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.5">
@@ -1219,10 +1360,10 @@
         <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="31">
@@ -1235,11 +1376,11 @@
       <c r="C25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.5">
@@ -1253,10 +1394,10 @@
         <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.5">
@@ -1270,10 +1411,10 @@
         <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.5">
@@ -1287,10 +1428,10 @@
         <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.5">
@@ -1304,10 +1445,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.5">
@@ -1321,10 +1462,10 @@
         <v>52</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.5">
@@ -1338,10 +1479,10 @@
         <v>54</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.5">
@@ -1355,10 +1496,10 @@
         <v>56</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.5">
@@ -1372,13 +1513,13 @@
         <v>58</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="31">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.5">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -1391,8 +1532,8 @@
       <c r="E34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>60</v>
+      <c r="F34" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.5">
@@ -1406,10 +1547,10 @@
         <v>62</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.5">
@@ -1423,10 +1564,10 @@
         <v>64</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.5">
@@ -1440,10 +1581,10 @@
         <v>66</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.5">
@@ -1457,10 +1598,10 @@
         <v>68</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.5">
@@ -1474,10 +1615,10 @@
         <v>70</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.5">
@@ -1491,10 +1632,10 @@
         <v>72</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.5">
@@ -1508,10 +1649,10 @@
         <v>74</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.5">
@@ -1525,10 +1666,10 @@
         <v>76</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.5">
@@ -1542,10 +1683,10 @@
         <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.5">
@@ -1559,10 +1700,10 @@
         <v>80</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.5">
@@ -1576,10 +1717,10 @@
         <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
